--- a/EdurekaFramework-112018/outputFiles/testData.xlsx
+++ b/EdurekaFramework-112018/outputFiles/testData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p2707746/git/framework112019/EdurekaFramework-112018/outputFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DF7C22-C056-1F44-B990-18BC3E0958CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F272E-B786-B045-A8B0-6EF3FEB2036D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Data" sheetId="1" r:id="rId1"/>
+    <sheet name="testData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,16 +34,16 @@
     <t>Saurabh4</t>
   </si>
   <si>
-    <t>Dingra1</t>
-  </si>
-  <si>
-    <t>Dingra2</t>
-  </si>
-  <si>
-    <t>Dingra3</t>
-  </si>
-  <si>
-    <t>Dingra4</t>
+    <t>DingraA1</t>
+  </si>
+  <si>
+    <t>DingraB2</t>
+  </si>
+  <si>
+    <t>DingraC3</t>
+  </si>
+  <si>
+    <t>DingraD4</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
